--- a/All_USER_PROFILE.xlsx
+++ b/All_USER_PROFILE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,30 +446,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>companyId</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dealerId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>storeId</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>dealerName</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>storeName</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>promoterStoreMappingId</t>
         </is>
@@ -485,27 +490,30 @@
         <v>117955</v>
       </c>
       <c r="C2" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D2" t="n">
         <v>1362534</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>134432</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>永旺(香港)百貨有限公司</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>吉之島-荃灣灣景店(02)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>32100</v>
       </c>
     </row>
@@ -519,27 +527,30 @@
         <v>117268</v>
       </c>
       <c r="C3" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D3" t="n">
         <v>1363164</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>142032</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Citistore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Citistore-荃灣</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>30642</v>
       </c>
     </row>
@@ -553,61 +564,67 @@
         <v>116954</v>
       </c>
       <c r="C4" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D4" t="n">
         <v>1362534</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>134440</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>永旺(香港)百貨有限公司</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>吉之島-黃埔店(07)</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>29827</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ex_KingChungL</t>
+          <t>ex_kingchungl</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>115883</v>
       </c>
       <c r="C5" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D5" t="n">
         <v>1362417</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>134508</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>香港蘇寧採購有限公司</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>香港蘇寧9878</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>31144</v>
       </c>
     </row>
@@ -621,27 +638,30 @@
         <v>117473</v>
       </c>
       <c r="C6" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D6" t="n">
         <v>1362534</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>134487</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>永旺(香港)百貨有限公司</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>吉之島-九龍灣店(06)</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>32101</v>
       </c>
     </row>
@@ -655,27 +675,30 @@
         <v>117473</v>
       </c>
       <c r="C7" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D7" t="n">
         <v>1363164</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>142035</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Citistore</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Citistore-將軍澳</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>31151</v>
       </c>
     </row>
@@ -689,61 +712,67 @@
         <v>117473</v>
       </c>
       <c r="C8" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D8" t="n">
         <v>1363164</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>142036</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Citistore</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Citistore-馬鞍山</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>31891</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ex_kwaiLinY</t>
+          <t>ex_kwailiny</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>114690</v>
       </c>
       <c r="C9" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D9" t="n">
         <v>1362417</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>134609</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>香港蘇寧採購有限公司</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>香港蘇寧9838</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>21012</v>
       </c>
     </row>
@@ -757,27 +786,30 @@
         <v>111872</v>
       </c>
       <c r="C10" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D10" t="n">
         <v>1362478</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>135073</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>百老匯攝影器材有限公司</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>百老匯08</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>8455</v>
       </c>
     </row>
@@ -791,27 +823,30 @@
         <v>117470</v>
       </c>
       <c r="C11" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D11" t="n">
         <v>1362356</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>134248</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>豐澤電器</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>豐澤213</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
         <v>31148</v>
       </c>
     </row>
@@ -825,27 +860,30 @@
         <v>117475</v>
       </c>
       <c r="C12" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D12" t="n">
         <v>1362356</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>134251</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>豐澤電器</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>豐澤237</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
         <v>31153</v>
       </c>
     </row>
@@ -859,27 +897,30 @@
         <v>112270</v>
       </c>
       <c r="C13" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D13" t="n">
         <v>1362356</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>134239</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>豐澤電器</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>豐澤484</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>9231</v>
       </c>
     </row>
@@ -893,27 +934,30 @@
         <v>117541</v>
       </c>
       <c r="C14" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D14" t="n">
         <v>1362356</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>134208</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>豐澤電器</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>豐澤628</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>31264</v>
       </c>
     </row>
@@ -927,27 +971,30 @@
         <v>117778</v>
       </c>
       <c r="C15" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D15" t="n">
         <v>1362407</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>134305</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>張毛記電業有限公司</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>張毛記電業有限公司</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>31734</v>
       </c>
     </row>
@@ -961,27 +1008,30 @@
         <v>117778</v>
       </c>
       <c r="C16" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D16" t="n">
         <v>1362534</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>134611</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>永旺(香港)百貨有限公司</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>吉之島-屯門店(08)</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>31844</v>
       </c>
     </row>
@@ -995,27 +1045,30 @@
         <v>117778</v>
       </c>
       <c r="C17" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D17" t="n">
         <v>1363164</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>142034</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Citistore</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Citistore-屯門</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>32178</v>
       </c>
     </row>
@@ -1029,61 +1082,67 @@
         <v>117474</v>
       </c>
       <c r="C18" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D18" t="n">
         <v>1362478</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>134948</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>百老匯攝影器材有限公司</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>百老匯23</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>31900</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ex_MeiSimC</t>
+          <t>ex_meisimc</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>115886</v>
       </c>
       <c r="C19" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D19" t="n">
         <v>1362478</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>134620</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>百老匯攝影器材有限公司</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>百老匯21</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>31901</v>
       </c>
     </row>
@@ -1097,27 +1156,30 @@
         <v>116902</v>
       </c>
       <c r="C20" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D20" t="n">
         <v>1362356</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>134195</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>豐澤電器</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>豐澤616</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>29721</v>
       </c>
     </row>
@@ -1131,27 +1193,30 @@
         <v>117472</v>
       </c>
       <c r="C21" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D21" t="n">
         <v>1362356</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>1419575</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>豐澤電器</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>豐澤477</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>31150</v>
       </c>
     </row>
@@ -1165,27 +1230,30 @@
         <v>116956</v>
       </c>
       <c r="C22" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D22" t="n">
         <v>1362534</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>134441</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>永旺(香港)百貨有限公司</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>吉之島-康山店(01)</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>29829</v>
       </c>
     </row>
@@ -1199,129 +1267,141 @@
         <v>117476</v>
       </c>
       <c r="C23" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D23" t="n">
         <v>1362478</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>134940</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>百老匯攝影器材有限公司</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>百老匯19</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>31154</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ex_SukHanT</t>
+          <t>ex_sukhant</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>115885</v>
       </c>
       <c r="C24" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D24" t="n">
         <v>1362534</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>134487</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>永旺(香港)百貨有限公司</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>吉之島-九龍灣店(06)</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>26755</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ex_SukHanT</t>
+          <t>ex_sukhant</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>115885</v>
       </c>
       <c r="C25" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D25" t="n">
         <v>1362417</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>134707</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>香港蘇寧採購有限公司</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>香港蘇寧988D</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
         <v>25971</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ex_SukHanT</t>
+          <t>ex_sukhant</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>115885</v>
       </c>
       <c r="C26" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D26" t="n">
         <v>1362888</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>134786</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>崇光(香港)百貨有限公司</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>崇光(香港)百貨有限公司</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
         <v>31146</v>
       </c>
     </row>
@@ -1335,27 +1415,30 @@
         <v>116901</v>
       </c>
       <c r="C27" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D27" t="n">
         <v>1362356</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>134250</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>豐澤電器</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>豐澤220</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>31902</v>
       </c>
     </row>
@@ -1369,27 +1452,30 @@
         <v>117990</v>
       </c>
       <c r="C28" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D28" t="n">
         <v>1363164</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>142034</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Citistore</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Citistore-屯門</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>32177</v>
       </c>
     </row>
@@ -1403,27 +1489,30 @@
         <v>117990</v>
       </c>
       <c r="C29" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D29" t="n">
         <v>1362394</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>1437142</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>City Super Limited</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>City Super-Log On-CWB</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>32176</v>
       </c>
     </row>
@@ -1437,27 +1526,30 @@
         <v>117540</v>
       </c>
       <c r="C30" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D30" t="n">
         <v>1362356</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>134181</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>豐澤電器</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>豐澤418</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>31899</v>
       </c>
     </row>
@@ -1471,27 +1563,30 @@
         <v>117540</v>
       </c>
       <c r="C31" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D31" t="n">
         <v>1362478</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>134765</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>百老匯攝影器材有限公司</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>百老匯17</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>31263</v>
       </c>
     </row>
@@ -1505,27 +1600,30 @@
         <v>117540</v>
       </c>
       <c r="C32" t="n">
+        <v>106539</v>
+      </c>
+      <c r="D32" t="n">
         <v>1362417</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>135383</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>香港蘇寧採購有限公司</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>香港蘇寧9875</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>32102</v>
       </c>
     </row>
